--- a/MachineTest-updata.xlsx
+++ b/MachineTest-updata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>版本号</t>
   </si>
@@ -105,6 +105,23 @@
   </si>
   <si>
     <t>修复当未勾选复选框结果保存有错误的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谌龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改测试顺序，先测试整机功能，再切换测试模式提取主版本号。
+2、删除获取ZYNQ以及MCU版本号功能，添加获取主版本号功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -599,6 +619,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>

--- a/MachineTest-updata.xlsx
+++ b/MachineTest-updata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>版本号</t>
   </si>
@@ -122,6 +122,39 @@
   <si>
     <t>1、修改测试顺序，先测试整机功能，再切换测试模式提取主版本号。
 2、删除获取ZYNQ以及MCU版本号功能，添加获取主版本号功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谌龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、添加写入SN码功能
+2、提取主版本号功能移动到正常模式下提取3、添加通道选择，选择接受目标等信息的can通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谌龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改软件名称为FV01M整机终检软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,11 +240,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -537,29 +573,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.350000000000001" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
@@ -629,8 +665,36 @@
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
